--- a/results/I3_N5_M3_T45_C150_DepCentral_s3_P5_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepCentral_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.0257182372841</v>
+        <v>1570.204899660161</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01599979400634766</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728903</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.099859042888356</v>
+        <v>14.53978881378947</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.099859042888356</v>
+        <v>4.889836398081229</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.54999999999507</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -744,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -813,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -918,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>33.10555953090582</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.10555953090582</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>40.92773953394845</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.8839324825959</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>15.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.99539592898705</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -974,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39.50875628620634</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1034,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1048,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1062,15 +1073,169 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8">
@@ -1184,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
@@ -1195,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
@@ -1206,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11">
@@ -1217,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
@@ -1228,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -1239,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>156.3</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -1250,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>150.505</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -1261,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>154.055</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -1272,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>149.7249999999994</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -1283,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18">
@@ -1294,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19">
@@ -1305,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20">
@@ -1316,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
@@ -1327,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22">
@@ -1338,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1349,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1360,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>159.165</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1371,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1382,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>161.495</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1393,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>85.66499999999971</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1404,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.02499999999969</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1415,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.97499999999971</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1426,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.03999999999971</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1437,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.90999999999971</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1448,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.41</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
@@ -1459,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.3</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -1470,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.505</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35">
@@ -1481,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>154.055</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
@@ -1492,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>149.7249999999994</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37">
@@ -1558,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>152.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1569,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>153.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1580,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>159.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1591,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>156.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1602,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>161.495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.409999999999172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -1660,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
@@ -1671,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5049999999991712</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
@@ -1682,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.054999999999183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -1693,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -1759,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1770,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>3.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1781,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>9.165000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1792,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1803,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>11.495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1971,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1982,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1993,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2004,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2015,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2026,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2037,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2048,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2059,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2070,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2081,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2092,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2103,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2114,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2155,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2166,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2177,7 +2342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2188,7 +2353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2199,10 +2364,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2210,10 +2375,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2221,10 +2386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2232,10 +2397,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2243,12 +2408,78 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
